--- a/AnalysisV2.xlsx
+++ b/AnalysisV2.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,222 @@
         <is>
           <t>value</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gary Sanchez</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8.294814807702904</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>J.T. Realmuto</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.720008802600963</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yasmani Grandal</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.7054341424191</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Shea Langeliers</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.505887524682409</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mitch Garver</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.44349619464888</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cal Raleigh</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.437610076938013</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jonah Heim</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.393879808912723</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Christian Vazquez</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.163577101823381</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Patrick Bailey</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.938691709974138</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Reese McGuire</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.591071506397525</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kyle Higashioka</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.02709575480205</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Bo Naylor</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.196966388102296</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -460,7 +676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +704,348 @@
         <is>
           <t>value</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jake Cronenworth</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.9097757647849</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Justin Turner</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.07103621880974</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Seth Brown</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.167536146298197</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bryce Harper</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.563435348126911</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Joey Gallo</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.333951717186248</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Matt Carpenter</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.877668489918022</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ty France</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.06914863866609</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ryan Noda</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.017442879488561</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Matt Olson</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.969302382740425</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Anthony Rizzo</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.9308214497419</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Josh Bell</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.865964617926396</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Josh Naylor</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.861722175720736</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nathaniel Lowe</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.784060121294659</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Andrew Vaughn</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.758238134873021</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Alex Kirilloff</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.570662306226283</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Triston Casas</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.194855104798049</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mike Ford</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.15298049337735</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Alec Bohm</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.05470281516277</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kody Clemens</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.838944282061727</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +1087,312 @@
         <is>
           <t>value</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jake Cronenworth</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.9097757647849</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Thairo Estrada</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.0649366161492</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Marcus Semien</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.43072063919612</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Edouard Julien</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.40736512511518</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jose Caballero</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.841967868177429</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ozzie Albies</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.802947747738854</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gleyber Torres</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9.164375037377917</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Andres Gimenez</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.116085222875691</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Elvis Andrus</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8.101395820863845</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kolten Wong</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.047976417634127</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>David Villar</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7.929680615257656</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Orlando Arcia</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7.894382865292981</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Christian Arroyo</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.851106816312647</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tyler Wade</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7.546584808472678</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bryson Stott</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7.002977487171066</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ezequiel Duran</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5.586347976936485</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tony Kemp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5.017861113710754</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.51</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +1406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +1434,312 @@
         <is>
           <t>value</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Manny Machado</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.20121886819191</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rafael Devers</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.97113041597109</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jose Ramirez</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.84401444675467</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Josh Jung</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.33244683268201</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Austin Riley</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10.31586984356914</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Justin Turner</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.07103621880974</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jose Caballero</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9.841967868177429</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>J.D. Davis</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.737555027888309</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Royce Lewis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.458083619974717</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Josh Donaldson</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.191715594635433</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jake Burger</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.164448105001195</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Eugenio Suarez</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8.933568723195931</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>David Villar</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.929680615257656</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Orlando Arcia</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7.894382865292981</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jace Peterson</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7.71941370326124</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Zach Remillard</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7.702764821503891</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Alec Bohm</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.05470281516277</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +1753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,6 +1781,258 @@
         <is>
           <t>value</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fernando Tatis Jr.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.73015380331601</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Xander Bogaerts</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.91487162745205</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Corey Seager</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13.65453788610865</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Carlos Correa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13.27458367600119</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Trea Turner</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.05788267246618</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Thairo Estrada</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.0649366161492</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Amed Rosario</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10.64352075933408</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Royce Lewis</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.458083619974717</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brandon Crawford</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.11338232433036</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Anthony Volpe</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.257690462566567</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Elvis Andrus</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8.101395820863845</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Orlando Arcia</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7.894382865292981</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tyler Wade</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.546584808472678</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ezequiel Duran</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.586347976936485</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.86</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,6 +2074,780 @@
         <is>
           <t>value</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fernando Tatis Jr.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.73015380331601</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Juan Soto</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.30097030429406</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Trent Grisham</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.827447321575205</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Seth Brown</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.167536146298197</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Byron Buxton</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.132464488472714</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Julio Rodriguez</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.997243367046145</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Eloy Jimenez</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.972589765528573</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Teoscar Hernandez</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.77648901556636</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Joc Pederson</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.729360753845488</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kyle Schwarber</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7.670113777488234</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Adolis Garcia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7.667277522417177</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ronald Acuna Jr.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7.579676341786727</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bryce Harper</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.563435348126911</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tyler Wade</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7.546584808472678</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Luis Robert Jr.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7.357297859714915</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mike Yastrzemski</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7.335610630054148</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Michael Conforto</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7.244431080440141</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Masataka Yoshida</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7.241425973535309</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marcell Ozuna</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7.197448221739781</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nick Castellanos</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7.131046187338411</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ramon Laureano</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7.019978132178996</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jarred Kelenic</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6.91412531839099</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Max Kepler</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6.90300355522077</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>JJ Bleday</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6.790843157141073</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Alex Verdugo</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6.775445193762295</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jarren Duran</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.654165052149063</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Andrew Benintendi</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.651875864022159</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Willie Calhoun</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6.628958649314027</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Steven Kwan</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6.397853753123369</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Joey Gallo</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.333951717186248</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Michael Harris II</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.308957552350091</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Eddie Rosario</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5.904975979675517</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Michael A. Taylor</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5.700957712728463</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Leody Taveras</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5.692063361847278</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Will Brennan</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5.652873929570966</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ezequiel Duran</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5.586347976936485</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Billy McKinney</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5.38320725184445</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Clint Frazier</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5.319719329437948</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Esteury Ruiz</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5.223739798067965</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Brandon Marsh</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5.194911364419607</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tony Kemp</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5.017861113710754</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Harrison Bader</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4.881932319734244</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Myles Straw</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.770892734872424</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +2861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +2891,2202 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gary Sanchez</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8.294814807702904</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>J.T. Realmuto</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.720008802600963</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yasmani Grandal</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.7054341424191</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Shea Langeliers</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.505887524682409</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mitch Garver</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.44349619464888</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cal Raleigh</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.437610076938013</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jonah Heim</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.393879808912723</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Christian Vazquez</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.163577101823381</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Patrick Bailey</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.938691709974138</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Reese McGuire</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.591071506397525</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kyle Higashioka</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.02709575480205</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Bo Naylor</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.196966388102296</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jake Cronenworth</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15.9097757647849</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Justin Turner</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10.07103621880974</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Seth Brown</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8.167536146298197</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bryce Harper</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7.563435348126911</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Joey Gallo</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6.333951717186248</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Matt Carpenter</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.877668489918022</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ty France</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3.06914863866609</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ryan Noda</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.017442879488561</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Matt Olson</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.969302382740425</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Anthony Rizzo</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.9308214497419</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Josh Bell</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.865964617926396</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Josh Naylor</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.861722175720736</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Nathaniel Lowe</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.784060121294659</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Andrew Vaughn</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.758238134873021</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Alex Kirilloff</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.570662306226283</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Triston Casas</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.194855104798049</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mike Ford</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2.15298049337735</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Alec Bohm</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.05470281516277</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kody Clemens</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.838944282061727</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jake Cronenworth</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15.9097757647849</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Thairo Estrada</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11.0649366161492</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Marcus Semien</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10.43072063919612</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Edouard Julien</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10.40736512511518</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jose Caballero</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9.841967868177429</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ozzie Albies</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9.802947747738854</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Gleyber Torres</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9.164375037377917</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Andres Gimenez</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8.116085222875691</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Elvis Andrus</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>8.101395820863845</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Kolten Wong</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8.047976417634127</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>David Villar</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7.929680615257656</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Orlando Arcia</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7.894382865292981</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Christian Arroyo</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7.851106816312647</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tyler Wade</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7.546584808472678</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Bryson Stott</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7.002977487171066</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ezequiel Duran</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5.586347976936485</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tony Kemp</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5.017861113710754</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Manny Machado</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>13.20121886819191</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rafael Devers</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10.97113041597109</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jose Ramirez</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10.84401444675467</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Josh Jung</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10.33244683268201</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Austin Riley</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10.31586984356914</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Justin Turner</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10.07103621880974</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jose Caballero</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9.841967868177429</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>J.D. Davis</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9.737555027888309</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Royce Lewis</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9.458083619974717</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Josh Donaldson</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9.191715594635433</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jake Burger</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9.164448105001195</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Eugenio Suarez</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8.933568723195931</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>David Villar</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7.929680615257656</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Orlando Arcia</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>7.894382865292981</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jace Peterson</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7.71941370326124</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Zach Remillard</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7.702764821503891</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Alec Bohm</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2.05470281516277</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Fernando Tatis Jr.</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>17.73015380331601</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Xander Bogaerts</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>15.91487162745205</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Corey Seager</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>13.65453788610865</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Carlos Correa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>13.27458367600119</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Trea Turner</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>12.05788267246618</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Thairo Estrada</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>11.0649366161492</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Amed Rosario</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>10.64352075933408</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Royce Lewis</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9.458083619974717</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Brandon Crawford</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9.11338232433036</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Anthony Volpe</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>8.257690462566567</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Elvis Andrus</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8.101395820863845</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Orlando Arcia</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7.894382865292981</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Tyler Wade</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7.546584808472678</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ezequiel Duran</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5.586347976936485</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Fernando Tatis Jr.</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>17.73015380331601</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Juan Soto</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>12.30097030429406</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Trent Grisham</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>8.827447321575205</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Seth Brown</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>8.167536146298197</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Byron Buxton</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>8.132464488472714</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Julio Rodriguez</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7.997243367046145</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Eloy Jimenez</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>7.972589765528573</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Teoscar Hernandez</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>7.77648901556636</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Joc Pederson</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>7.729360753845488</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Kyle Schwarber</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>7.670113777488234</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Adolis Garcia</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>7.667277522417177</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Ronald Acuna Jr.</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7.579676341786727</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Bryce Harper</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7.563435348126911</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tyler Wade</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>7.546584808472678</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Luis Robert Jr.</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>7.357297859714915</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Mike Yastrzemski</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>7.335610630054148</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michael Conforto</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7.244431080440141</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Masataka Yoshida</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>7.241425973535309</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Marcell Ozuna</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>7.197448221739781</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Nick Castellanos</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>7.131046187338411</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ramon Laureano</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>7.019978132178996</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jarred Kelenic</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6.91412531839099</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Max Kepler</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6.90300355522077</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>JJ Bleday</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6.790843157141073</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Alex Verdugo</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>6.775445193762295</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Jarren Duran</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>6.654165052149063</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Andrew Benintendi</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>6.651875864022159</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Willie Calhoun</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>6.628958649314027</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Steven Kwan</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>6.397853753123369</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Joey Gallo</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6.333951717186248</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Michael Harris II</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>6.308957552350091</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Eddie Rosario</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5.904975979675517</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Michael A. Taylor</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5.700957712728463</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Leody Taveras</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5.692063361847278</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Will Brennan</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5.652873929570966</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ezequiel Duran</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5.586347976936485</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Billy McKinney</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5.38320725184445</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Clint Frazier</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5.319719329437948</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Esteury Ruiz</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5.223739798067965</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Brandon Marsh</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5.194911364419607</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tony Kemp</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5.017861113710754</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Harrison Bader</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>4.881932319734244</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Myles Straw</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>4.770892734872424</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
